--- a/modified_ieee_14/Examples/ParticipationAnalysis/ModalConfig_IEEE_14Bus_Cyprus_original.xlsx
+++ b/modified_ieee_14/Examples/ParticipationAnalysis/ModalConfig_IEEE_14Bus_Cyprus_original.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\Git\Simplus-Grid-Tool\Examples\ParticipationAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Simplus-Grid-Tool\modified_ieee_14\Examples\ParticipationAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3690B8B9-D7A1-4E62-A939-A2AA22BB9E69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DBEBCC-DE25-45D4-A3E4-2013F962A1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4785" yWindow="2910" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{DDEEE2F7-7DDD-4A69-A02F-F787DA6CAA86}"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="28800" windowHeight="15540" activeTab="2" xr2:uid="{DDEEE2F7-7DDD-4A69-A02F-F787DA6CAA86}"/>
   </bookViews>
   <sheets>
-    <sheet name="State-PF" sheetId="38" r:id="rId1"/>
-    <sheet name="Impedance-PF" sheetId="39" r:id="rId2"/>
-    <sheet name="Enabling" sheetId="40" r:id="rId3"/>
+    <sheet name="State-PF" sheetId="41" r:id="rId1"/>
+    <sheet name="Impedance-PF" sheetId="42" r:id="rId2"/>
+    <sheet name="Enabling" sheetId="43" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -448,27 +448,27 @@
     <t>Mode60</t>
   </si>
   <si>
+    <t>-10.16+49.83i</t>
+  </si>
+  <si>
+    <t>Mode61</t>
+  </si>
+  <si>
+    <t>-10.16-49.83i</t>
+  </si>
+  <si>
+    <t>Mode62</t>
+  </si>
+  <si>
     <t>-0.67+49.90i</t>
   </si>
   <si>
-    <t>Mode61</t>
+    <t>Mode63</t>
   </si>
   <si>
     <t>-0.67-49.90i</t>
   </si>
   <si>
-    <t>Mode62</t>
-  </si>
-  <si>
-    <t>-10.16+49.83i</t>
-  </si>
-  <si>
-    <t>Mode63</t>
-  </si>
-  <si>
-    <t>-10.16-49.83i</t>
-  </si>
-  <si>
     <t>Mode64</t>
   </si>
   <si>
@@ -511,72 +511,72 @@
     <t>Mode70</t>
   </si>
   <si>
+    <t>-25.39+50.00i</t>
+  </si>
+  <si>
     <t>Mode71</t>
   </si>
   <si>
+    <t>-25.39-50.00i</t>
+  </si>
+  <si>
+    <t>Mode72</t>
+  </si>
+  <si>
+    <t>Mode73</t>
+  </si>
+  <si>
+    <t>Mode74</t>
+  </si>
+  <si>
     <t>-13.79+49.99i</t>
   </si>
   <si>
-    <t>Mode72</t>
+    <t>Mode75</t>
   </si>
   <si>
     <t>-13.79-49.99i</t>
   </si>
   <si>
-    <t>Mode73</t>
-  </si>
-  <si>
-    <t>-25.39+50.00i</t>
-  </si>
-  <si>
-    <t>Mode74</t>
-  </si>
-  <si>
-    <t>-25.39-50.00i</t>
-  </si>
-  <si>
-    <t>Mode75</t>
-  </si>
-  <si>
     <t>Mode76</t>
   </si>
   <si>
     <t>Mode77</t>
   </si>
   <si>
+    <t>Mode78</t>
+  </si>
+  <si>
     <t>-0.05+50.00i</t>
   </si>
   <si>
-    <t>Mode78</t>
+    <t>Mode79</t>
   </si>
   <si>
     <t>-0.05-50.00i</t>
   </si>
   <si>
-    <t>Mode79</t>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>x_br1-1_1</t>
+  </si>
+  <si>
+    <t>Mode80</t>
   </si>
   <si>
     <t>-0.03+50.00i</t>
   </si>
   <si>
-    <t>Line</t>
-  </si>
-  <si>
-    <t>x_br1-1_1</t>
-  </si>
-  <si>
-    <t>Mode80</t>
+    <t>x_br1-1_2</t>
+  </si>
+  <si>
+    <t>Mode81</t>
   </si>
   <si>
     <t>-0.03-50.00i</t>
   </si>
   <si>
-    <t>x_br1-1_2</t>
-  </si>
-  <si>
-    <t>Mode81</t>
-  </si>
-  <si>
     <t>x_br1-2_1</t>
   </si>
   <si>
@@ -589,252 +589,252 @@
     <t>Mode83</t>
   </si>
   <si>
+    <t>x_br1-5_1</t>
+  </si>
+  <si>
+    <t>Mode84</t>
+  </si>
+  <si>
     <t>-0.02+50.00i</t>
   </si>
   <si>
-    <t>x_br1-5_1</t>
-  </si>
-  <si>
-    <t>Mode84</t>
+    <t>x_br1-5_2</t>
+  </si>
+  <si>
+    <t>Mode85</t>
   </si>
   <si>
     <t>-0.02-50.00i</t>
   </si>
   <si>
-    <t>x_br1-5_2</t>
-  </si>
-  <si>
-    <t>Mode85</t>
+    <t>Mode86</t>
   </si>
   <si>
     <t>-0.01+50.00i</t>
   </si>
   <si>
-    <t>Mode86</t>
+    <t>Mode87</t>
   </si>
   <si>
     <t>-0.01-50.00i</t>
   </si>
   <si>
-    <t>Mode87</t>
-  </si>
-  <si>
     <t>Mode88</t>
   </si>
   <si>
     <t>Mode89</t>
   </si>
   <si>
+    <t>-21.36+50.00i</t>
+  </si>
+  <si>
+    <t>Mode90</t>
+  </si>
+  <si>
+    <t>-21.36-50.00i</t>
+  </si>
+  <si>
+    <t>Mode91</t>
+  </si>
+  <si>
+    <t>Mode92</t>
+  </si>
+  <si>
+    <t>Mode93</t>
+  </si>
+  <si>
+    <t>-23.44+50.00i</t>
+  </si>
+  <si>
+    <t>x_br2-2_1</t>
+  </si>
+  <si>
+    <t>Mode94</t>
+  </si>
+  <si>
+    <t>-23.44-50.00i</t>
+  </si>
+  <si>
+    <t>x_br2-2_2</t>
+  </si>
+  <si>
+    <t>Mode95</t>
+  </si>
+  <si>
+    <t>-24.56+50.00i</t>
+  </si>
+  <si>
+    <t>x_br2-2_5</t>
+  </si>
+  <si>
+    <t>Mode96</t>
+  </si>
+  <si>
+    <t>-24.56-50.00i</t>
+  </si>
+  <si>
+    <t>x_br2-2_6</t>
+  </si>
+  <si>
+    <t>Mode97</t>
+  </si>
+  <si>
+    <t>x_br2-3_1</t>
+  </si>
+  <si>
+    <t>Mode98</t>
+  </si>
+  <si>
+    <t>x_br2-3_2</t>
+  </si>
+  <si>
+    <t>Mode99</t>
+  </si>
+  <si>
+    <t>x_br2-4_1</t>
+  </si>
+  <si>
+    <t>Mode100</t>
+  </si>
+  <si>
+    <t>x_br2-4_2</t>
+  </si>
+  <si>
+    <t>Mode101</t>
+  </si>
+  <si>
+    <t>x_br2-5_1</t>
+  </si>
+  <si>
+    <t>Mode102</t>
+  </si>
+  <si>
+    <t>-15.77+49.99i</t>
+  </si>
+  <si>
+    <t>x_br2-5_2</t>
+  </si>
+  <si>
+    <t>Mode103</t>
+  </si>
+  <si>
+    <t>-15.77-49.99i</t>
+  </si>
+  <si>
+    <t>Mode104</t>
+  </si>
+  <si>
+    <t>-11.87+50.00i</t>
+  </si>
+  <si>
+    <t>Mode105</t>
+  </si>
+  <si>
+    <t>-11.87-50.00i</t>
+  </si>
+  <si>
+    <t>Mode106</t>
+  </si>
+  <si>
+    <t>Mode107</t>
+  </si>
+  <si>
+    <t>Mode108</t>
+  </si>
+  <si>
     <t>-12.11+50.00i</t>
   </si>
   <si>
-    <t>Mode90</t>
+    <t>Mode109</t>
   </si>
   <si>
     <t>-12.11-50.00i</t>
   </si>
   <si>
-    <t>Mode91</t>
-  </si>
-  <si>
-    <t>Mode92</t>
-  </si>
-  <si>
-    <t>Mode93</t>
-  </si>
-  <si>
-    <t>x_br2-2_1</t>
-  </si>
-  <si>
-    <t>Mode94</t>
-  </si>
-  <si>
-    <t>x_br2-2_2</t>
-  </si>
-  <si>
-    <t>Mode95</t>
-  </si>
-  <si>
-    <t>x_br2-2_5</t>
-  </si>
-  <si>
-    <t>Mode96</t>
-  </si>
-  <si>
-    <t>-15.77+49.99i</t>
-  </si>
-  <si>
-    <t>x_br2-2_6</t>
-  </si>
-  <si>
-    <t>Mode97</t>
-  </si>
-  <si>
-    <t>-15.77-49.99i</t>
-  </si>
-  <si>
-    <t>x_br2-3_1</t>
-  </si>
-  <si>
-    <t>Mode98</t>
-  </si>
-  <si>
-    <t>-23.44+50.00i</t>
-  </si>
-  <si>
-    <t>x_br2-3_2</t>
-  </si>
-  <si>
-    <t>Mode99</t>
-  </si>
-  <si>
-    <t>-23.44-50.00i</t>
-  </si>
-  <si>
-    <t>x_br2-4_1</t>
-  </si>
-  <si>
-    <t>Mode100</t>
-  </si>
-  <si>
-    <t>-24.56+50.00i</t>
-  </si>
-  <si>
-    <t>x_br2-4_2</t>
-  </si>
-  <si>
-    <t>Mode101</t>
-  </si>
-  <si>
-    <t>-24.56-50.00i</t>
-  </si>
-  <si>
-    <t>x_br2-5_1</t>
-  </si>
-  <si>
-    <t>Mode102</t>
+    <t>Mode110</t>
+  </si>
+  <si>
+    <t>Mode111</t>
+  </si>
+  <si>
+    <t>Mode112</t>
+  </si>
+  <si>
+    <t>Mode113</t>
+  </si>
+  <si>
+    <t>x_br3-3_1</t>
+  </si>
+  <si>
+    <t>Mode114</t>
+  </si>
+  <si>
+    <t>x_br3-3_2</t>
+  </si>
+  <si>
+    <t>Mode115</t>
+  </si>
+  <si>
+    <t>x_br3-3_5</t>
+  </si>
+  <si>
+    <t>Mode116</t>
+  </si>
+  <si>
+    <t>-24.02+50.00i</t>
+  </si>
+  <si>
+    <t>x_br3-3_6</t>
+  </si>
+  <si>
+    <t>Mode117</t>
+  </si>
+  <si>
+    <t>-24.02-50.00i</t>
+  </si>
+  <si>
+    <t>x_br3-4_1</t>
+  </si>
+  <si>
+    <t>Mode118</t>
+  </si>
+  <si>
+    <t>x_br3-4_2</t>
+  </si>
+  <si>
+    <t>Mode119</t>
+  </si>
+  <si>
+    <t>Mode120</t>
   </si>
   <si>
     <t>-18.82+50.00i</t>
   </si>
   <si>
-    <t>x_br2-5_2</t>
-  </si>
-  <si>
-    <t>Mode103</t>
+    <t>Mode121</t>
   </si>
   <si>
     <t>-18.82-50.00i</t>
   </si>
   <si>
-    <t>Mode104</t>
-  </si>
-  <si>
-    <t>Mode105</t>
-  </si>
-  <si>
-    <t>Mode106</t>
-  </si>
-  <si>
-    <t>-11.87+50.00i</t>
-  </si>
-  <si>
-    <t>Mode107</t>
-  </si>
-  <si>
-    <t>-11.87-50.00i</t>
-  </si>
-  <si>
-    <t>Mode108</t>
-  </si>
-  <si>
-    <t>Mode109</t>
-  </si>
-  <si>
-    <t>Mode110</t>
-  </si>
-  <si>
-    <t>-21.36+50.00i</t>
-  </si>
-  <si>
-    <t>Mode111</t>
-  </si>
-  <si>
-    <t>-21.36-50.00i</t>
-  </si>
-  <si>
-    <t>Mode112</t>
-  </si>
-  <si>
-    <t>Mode113</t>
-  </si>
-  <si>
-    <t>x_br3-3_1</t>
-  </si>
-  <si>
-    <t>Mode114</t>
-  </si>
-  <si>
-    <t>x_br3-3_2</t>
-  </si>
-  <si>
-    <t>Mode115</t>
-  </si>
-  <si>
-    <t>x_br3-3_5</t>
-  </si>
-  <si>
-    <t>Mode116</t>
-  </si>
-  <si>
-    <t>x_br3-3_6</t>
-  </si>
-  <si>
-    <t>Mode117</t>
-  </si>
-  <si>
-    <t>x_br3-4_1</t>
-  </si>
-  <si>
-    <t>Mode118</t>
+    <t>Mode122</t>
+  </si>
+  <si>
+    <t>Mode123</t>
+  </si>
+  <si>
+    <t>Mode124</t>
   </si>
   <si>
     <t>-23.51+50.00i</t>
   </si>
   <si>
-    <t>x_br3-4_2</t>
-  </si>
-  <si>
-    <t>Mode119</t>
+    <t>Mode125</t>
   </si>
   <si>
     <t>-23.51-50.00i</t>
   </si>
   <si>
-    <t>Mode120</t>
-  </si>
-  <si>
-    <t>Mode121</t>
-  </si>
-  <si>
-    <t>Mode122</t>
-  </si>
-  <si>
-    <t>Mode123</t>
-  </si>
-  <si>
-    <t>Mode124</t>
-  </si>
-  <si>
-    <t>-24.02+50.00i</t>
-  </si>
-  <si>
-    <t>Mode125</t>
-  </si>
-  <si>
-    <t>-24.02-50.00i</t>
-  </si>
-  <si>
     <t>Mode126</t>
   </si>
   <si>
@@ -859,246 +859,246 @@
     <t>Mode131</t>
   </si>
   <si>
+    <t>-23.88+50.00i</t>
+  </si>
+  <si>
+    <t>x_br4-5_1</t>
+  </si>
+  <si>
+    <t>Mode132</t>
+  </si>
+  <si>
+    <t>-23.88-50.00i</t>
+  </si>
+  <si>
+    <t>x_br4-5_2</t>
+  </si>
+  <si>
+    <t>Mode133</t>
+  </si>
+  <si>
+    <t>x_br4-7_1</t>
+  </si>
+  <si>
+    <t>Mode134</t>
+  </si>
+  <si>
+    <t>x_br4-7_2</t>
+  </si>
+  <si>
+    <t>Mode135</t>
+  </si>
+  <si>
+    <t>x_br4-9_1</t>
+  </si>
+  <si>
+    <t>Mode136</t>
+  </si>
+  <si>
+    <t>x_br4-9_2</t>
+  </si>
+  <si>
+    <t>Mode137</t>
+  </si>
+  <si>
+    <t>-19.59+50.00i</t>
+  </si>
+  <si>
+    <t>Mode138</t>
+  </si>
+  <si>
+    <t>-19.59-50.00i</t>
+  </si>
+  <si>
+    <t>Mode139</t>
+  </si>
+  <si>
+    <t>Mode140</t>
+  </si>
+  <si>
+    <t>Mode141</t>
+  </si>
+  <si>
+    <t>Mode142</t>
+  </si>
+  <si>
     <t>-0.90+2.57i</t>
   </si>
   <si>
-    <t>x_br4-5_1</t>
-  </si>
-  <si>
-    <t>Mode132</t>
+    <t>Mode143</t>
   </si>
   <si>
     <t>-0.90-2.57i</t>
   </si>
   <si>
-    <t>x_br4-5_2</t>
-  </si>
-  <si>
-    <t>Mode133</t>
+    <t>Mode144</t>
+  </si>
+  <si>
+    <t>Mode145</t>
   </si>
   <si>
     <t>-0.23+2.47i</t>
   </si>
   <si>
-    <t>x_br4-7_1</t>
-  </si>
-  <si>
-    <t>Mode134</t>
+    <t>Mode146</t>
   </si>
   <si>
     <t>-0.23-2.47i</t>
   </si>
   <si>
-    <t>x_br4-7_2</t>
-  </si>
-  <si>
-    <t>Mode135</t>
+    <t>Mode147</t>
   </si>
   <si>
     <t>-0.24+2.34i</t>
   </si>
   <si>
-    <t>x_br4-9_1</t>
-  </si>
-  <si>
-    <t>Mode136</t>
+    <t>Mode148</t>
   </si>
   <si>
     <t>-0.24-2.34i</t>
   </si>
   <si>
-    <t>x_br4-9_2</t>
-  </si>
-  <si>
-    <t>Mode137</t>
+    <t>Mode149</t>
   </si>
   <si>
     <t>-1.62+2.43i</t>
   </si>
   <si>
-    <t>Mode138</t>
+    <t>Mode150</t>
   </si>
   <si>
     <t>-1.62-2.43i</t>
   </si>
   <si>
-    <t>Mode139</t>
-  </si>
-  <si>
-    <t>Mode140</t>
-  </si>
-  <si>
-    <t>Mode141</t>
+    <t>Mode151</t>
   </si>
   <si>
     <t>-1.65+2.47i</t>
   </si>
   <si>
-    <t>Mode142</t>
+    <t>Mode152</t>
   </si>
   <si>
     <t>-1.65-2.47i</t>
   </si>
   <si>
-    <t>Mode143</t>
-  </si>
-  <si>
-    <t>Mode144</t>
-  </si>
-  <si>
-    <t>Mode145</t>
+    <t>Mode153</t>
   </si>
   <si>
     <t>-1.64+2.47i</t>
   </si>
   <si>
-    <t>Mode146</t>
+    <t>Mode154</t>
   </si>
   <si>
     <t>-1.64-2.47i</t>
   </si>
   <si>
-    <t>Mode147</t>
-  </si>
-  <si>
-    <t>-23.88+50.00i</t>
-  </si>
-  <si>
-    <t>Mode148</t>
-  </si>
-  <si>
-    <t>-23.88-50.00i</t>
-  </si>
-  <si>
-    <t>Mode149</t>
-  </si>
-  <si>
-    <t>Mode150</t>
-  </si>
-  <si>
-    <t>Mode151</t>
-  </si>
-  <si>
-    <t>-19.59+50.00i</t>
-  </si>
-  <si>
-    <t>Mode152</t>
-  </si>
-  <si>
-    <t>-19.59-50.00i</t>
-  </si>
-  <si>
-    <t>Mode153</t>
-  </si>
-  <si>
-    <t>Mode154</t>
-  </si>
-  <si>
     <t>Mode155</t>
   </si>
   <si>
+    <t>x_br5-5_1</t>
+  </si>
+  <si>
+    <t>Mode156</t>
+  </si>
+  <si>
+    <t>x_br5-5_2</t>
+  </si>
+  <si>
+    <t>Mode157</t>
+  </si>
+  <si>
+    <t>x_br5-5_5</t>
+  </si>
+  <si>
+    <t>Mode158</t>
+  </si>
+  <si>
+    <t>x_br5-5_6</t>
+  </si>
+  <si>
+    <t>Mode159</t>
+  </si>
+  <si>
+    <t>x_br5-6_1</t>
+  </si>
+  <si>
+    <t>Mode160</t>
+  </si>
+  <si>
+    <t>x_br5-6_2</t>
+  </si>
+  <si>
+    <t>Mode161</t>
+  </si>
+  <si>
     <t>-2.56+0.05i</t>
   </si>
   <si>
-    <t>x_br5-5_1</t>
-  </si>
-  <si>
-    <t>Mode156</t>
+    <t>Mode162</t>
   </si>
   <si>
     <t>-2.56-0.05i</t>
   </si>
   <si>
-    <t>x_br5-5_2</t>
-  </si>
-  <si>
-    <t>Mode157</t>
-  </si>
-  <si>
-    <t>x_br5-5_5</t>
-  </si>
-  <si>
-    <t>Mode158</t>
-  </si>
-  <si>
-    <t>x_br5-5_6</t>
-  </si>
-  <si>
-    <t>Mode159</t>
+    <t>Mode163</t>
+  </si>
+  <si>
+    <t>Mode164</t>
+  </si>
+  <si>
+    <t>Mode165</t>
+  </si>
+  <si>
+    <t>-16.37+50.00i</t>
+  </si>
+  <si>
+    <t>Mode166</t>
+  </si>
+  <si>
+    <t>-16.37-50.00i</t>
+  </si>
+  <si>
+    <t>Mode167</t>
   </si>
   <si>
     <t>-0.41+1.61i</t>
   </si>
   <si>
-    <t>x_br5-6_1</t>
-  </si>
-  <si>
-    <t>Mode160</t>
+    <t>x_br6-6_3</t>
+  </si>
+  <si>
+    <t>Mode168</t>
   </si>
   <si>
     <t>-0.41-1.61i</t>
   </si>
   <si>
-    <t>x_br5-6_2</t>
-  </si>
-  <si>
-    <t>Mode161</t>
-  </si>
-  <si>
-    <t>Mode162</t>
-  </si>
-  <si>
-    <t>Mode163</t>
-  </si>
-  <si>
-    <t>Mode164</t>
-  </si>
-  <si>
-    <t>Mode165</t>
-  </si>
-  <si>
-    <t>Mode166</t>
-  </si>
-  <si>
-    <t>Mode167</t>
-  </si>
-  <si>
-    <t>x_br6-6_3</t>
-  </si>
-  <si>
-    <t>Mode168</t>
+    <t>x_br6-6_4</t>
+  </si>
+  <si>
+    <t>Mode169</t>
   </si>
   <si>
     <t>-0.31+1.31i</t>
   </si>
   <si>
-    <t>x_br6-6_4</t>
-  </si>
-  <si>
-    <t>Mode169</t>
+    <t>x_br6-11_1</t>
+  </si>
+  <si>
+    <t>Mode170</t>
   </si>
   <si>
     <t>-0.31-1.31i</t>
   </si>
   <si>
-    <t>x_br6-11_1</t>
-  </si>
-  <si>
-    <t>Mode170</t>
-  </si>
-  <si>
-    <t>-16.37+50.00i</t>
-  </si>
-  <si>
     <t>x_br6-11_2</t>
   </si>
   <si>
     <t>Mode171</t>
   </si>
   <si>
-    <t>-16.37-50.00i</t>
-  </si>
-  <si>
     <t>x_br6-12_1</t>
   </si>
   <si>
@@ -1123,24 +1123,24 @@
     <t>Mode174</t>
   </si>
   <si>
+    <t>x_br6-13_2</t>
+  </si>
+  <si>
+    <t>Mode175</t>
+  </si>
+  <si>
+    <t>Mode176</t>
+  </si>
+  <si>
     <t>-0.63+1.18i</t>
   </si>
   <si>
-    <t>x_br6-13_2</t>
-  </si>
-  <si>
-    <t>Mode175</t>
+    <t>Mode177</t>
   </si>
   <si>
     <t>-0.63-1.18i</t>
   </si>
   <si>
-    <t>Mode176</t>
-  </si>
-  <si>
-    <t>Mode177</t>
-  </si>
-  <si>
     <t>Mode178</t>
   </si>
   <si>
@@ -1159,87 +1159,87 @@
     <t>Mode183</t>
   </si>
   <si>
+    <t>-16.48+50.00i</t>
+  </si>
+  <si>
+    <t>Mode184</t>
+  </si>
+  <si>
+    <t>-16.48-50.00i</t>
+  </si>
+  <si>
+    <t>Mode185</t>
+  </si>
+  <si>
+    <t>x_br7-8_1</t>
+  </si>
+  <si>
+    <t>Mode186</t>
+  </si>
+  <si>
+    <t>x_br7-8_2</t>
+  </si>
+  <si>
+    <t>Mode187</t>
+  </si>
+  <si>
+    <t>-16.38+50.00i</t>
+  </si>
+  <si>
+    <t>x_br7-9_1</t>
+  </si>
+  <si>
+    <t>Mode188</t>
+  </si>
+  <si>
+    <t>-16.38-50.00i</t>
+  </si>
+  <si>
+    <t>x_br7-9_2</t>
+  </si>
+  <si>
+    <t>Mode189</t>
+  </si>
+  <si>
+    <t>Mode190</t>
+  </si>
+  <si>
+    <t>Mode191</t>
+  </si>
+  <si>
+    <t>Mode192</t>
+  </si>
+  <si>
+    <t>Mode193</t>
+  </si>
+  <si>
+    <t>Mode194</t>
+  </si>
+  <si>
+    <t>Mode195</t>
+  </si>
+  <si>
     <t>-0.78+0.20i</t>
   </si>
   <si>
-    <t>Mode184</t>
+    <t>Mode196</t>
   </si>
   <si>
     <t>-0.78-0.20i</t>
   </si>
   <si>
-    <t>Mode185</t>
-  </si>
-  <si>
-    <t>-16.48+50.00i</t>
-  </si>
-  <si>
-    <t>x_br7-8_1</t>
-  </si>
-  <si>
-    <t>Mode186</t>
-  </si>
-  <si>
-    <t>-16.48-50.00i</t>
-  </si>
-  <si>
-    <t>x_br7-8_2</t>
-  </si>
-  <si>
-    <t>Mode187</t>
-  </si>
-  <si>
-    <t>x_br7-9_1</t>
-  </si>
-  <si>
-    <t>Mode188</t>
-  </si>
-  <si>
-    <t>x_br7-9_2</t>
-  </si>
-  <si>
-    <t>Mode189</t>
+    <t>Mode197</t>
   </si>
   <si>
     <t>-0.19+0.46i</t>
   </si>
   <si>
-    <t>Mode190</t>
+    <t>Mode198</t>
   </si>
   <si>
     <t>-0.19-0.46i</t>
   </si>
   <si>
-    <t>Mode191</t>
-  </si>
-  <si>
-    <t>Mode192</t>
-  </si>
-  <si>
-    <t>Mode193</t>
-  </si>
-  <si>
-    <t>-16.38+50.00i</t>
-  </si>
-  <si>
-    <t>Mode194</t>
-  </si>
-  <si>
-    <t>-16.38-50.00i</t>
-  </si>
-  <si>
-    <t>Mode195</t>
-  </si>
-  <si>
-    <t>Mode196</t>
-  </si>
-  <si>
-    <t>Mode197</t>
-  </si>
-  <si>
-    <t>Mode198</t>
-  </si>
-  <si>
     <t>Mode199</t>
   </si>
   <si>
@@ -1285,60 +1285,60 @@
     <t>Mode208</t>
   </si>
   <si>
+    <t>0.00+50.00i</t>
+  </si>
+  <si>
+    <t>x_br9-9_6</t>
+  </si>
+  <si>
+    <t>Mode209</t>
+  </si>
+  <si>
+    <t>0.00-50.00i</t>
+  </si>
+  <si>
+    <t>x_br9-10_1</t>
+  </si>
+  <si>
+    <t>Mode210</t>
+  </si>
+  <si>
+    <t>x_br9-10_2</t>
+  </si>
+  <si>
+    <t>Mode211</t>
+  </si>
+  <si>
+    <t>x_br9-14_1</t>
+  </si>
+  <si>
+    <t>Mode212</t>
+  </si>
+  <si>
     <t>-0.08+0.06i</t>
   </si>
   <si>
-    <t>x_br9-9_6</t>
-  </si>
-  <si>
-    <t>Mode209</t>
+    <t>x_br9-14_2</t>
+  </si>
+  <si>
+    <t>Mode213</t>
   </si>
   <si>
     <t>-0.08-0.06i</t>
   </si>
   <si>
-    <t>x_br9-10_1</t>
-  </si>
-  <si>
-    <t>Mode210</t>
+    <t>Mode214</t>
   </si>
   <si>
     <t>-0.06+0.04i</t>
   </si>
   <si>
-    <t>x_br9-10_2</t>
-  </si>
-  <si>
-    <t>Mode211</t>
+    <t>Mode215</t>
   </si>
   <si>
     <t>-0.06-0.04i</t>
   </si>
   <si>
-    <t>x_br9-14_1</t>
-  </si>
-  <si>
-    <t>Mode212</t>
-  </si>
-  <si>
-    <t>x_br9-14_2</t>
-  </si>
-  <si>
-    <t>Mode213</t>
-  </si>
-  <si>
-    <t>Mode214</t>
-  </si>
-  <si>
-    <t>0.00+50.00i</t>
-  </si>
-  <si>
-    <t>Mode215</t>
-  </si>
-  <si>
-    <t>0.00-50.00i</t>
-  </si>
-  <si>
     <t>Mode216</t>
   </si>
   <si>
@@ -1360,9 +1360,15 @@
     <t>Mode220</t>
   </si>
   <si>
+    <t>0.00+0.00i</t>
+  </si>
+  <si>
     <t>Mode221</t>
   </si>
   <si>
+    <t>0.00-0.00i</t>
+  </si>
+  <si>
     <t>x_br10-10_3</t>
   </si>
   <si>
@@ -1405,13 +1411,7 @@
     <t>Mode231</t>
   </si>
   <si>
-    <t>0.00+0.00i</t>
-  </si>
-  <si>
     <t>Mode232</t>
-  </si>
-  <si>
-    <t>0.00-0.00i</t>
   </si>
   <si>
     <t>Mode233</t>
@@ -1966,7 +1966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6877570-0150-41EB-BFA0-9127D43DB4BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A2F1C86-8DE9-45EC-99A0-7CE6CB9BACCD}">
   <dimension ref="A1:G277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3203,8 +3203,8 @@
       <c r="E76" t="s">
         <v>157</v>
       </c>
-      <c r="F76">
-        <v>-11.79</v>
+      <c r="F76" t="s">
+        <v>158</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -3218,10 +3218,10 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F77" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F78" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>162</v>
       </c>
       <c r="F79" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -3269,10 +3269,10 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
+        <v>163</v>
+      </c>
+      <c r="F80" t="s">
         <v>164</v>
-      </c>
-      <c r="F80" t="s">
-        <v>165</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -3286,10 +3286,10 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
+        <v>165</v>
+      </c>
+      <c r="F81" t="s">
         <v>166</v>
-      </c>
-      <c r="F81" t="s">
-        <v>163</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -3305,8 +3305,8 @@
       <c r="E82" t="s">
         <v>167</v>
       </c>
-      <c r="F82" t="s">
-        <v>165</v>
+      <c r="F82">
+        <v>-11.79</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -3322,8 +3322,8 @@
       <c r="E83" t="s">
         <v>168</v>
       </c>
-      <c r="F83" t="s">
-        <v>169</v>
+      <c r="F83">
+        <v>-9.41</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -3337,10 +3337,10 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
+        <v>169</v>
+      </c>
+      <c r="F84" t="s">
         <v>170</v>
-      </c>
-      <c r="F84" t="s">
-        <v>171</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -3354,10 +3354,10 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
+        <v>171</v>
+      </c>
+      <c r="F85" t="s">
         <v>172</v>
-      </c>
-      <c r="F85" t="s">
-        <v>173</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3365,19 +3365,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" t="s">
         <v>174</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
         <v>175</v>
       </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>176</v>
-      </c>
-      <c r="F86" t="s">
-        <v>177</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3385,16 +3385,16 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
         <v>178</v>
       </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>179</v>
-      </c>
-      <c r="F87" t="s">
-        <v>173</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>181</v>
       </c>
       <c r="F88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3428,7 +3428,7 @@
         <v>183</v>
       </c>
       <c r="F89" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3436,16 +3436,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
         <v>185</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>186</v>
-      </c>
-      <c r="F90" t="s">
-        <v>187</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3453,16 +3453,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
+        <v>187</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
         <v>188</v>
       </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>189</v>
-      </c>
-      <c r="F91" t="s">
-        <v>190</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3476,10 +3476,10 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
+        <v>190</v>
+      </c>
+      <c r="F92" t="s">
         <v>191</v>
-      </c>
-      <c r="F92" t="s">
-        <v>192</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3493,10 +3493,10 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
+        <v>192</v>
+      </c>
+      <c r="F93" t="s">
         <v>193</v>
-      </c>
-      <c r="F93">
-        <v>-9.41</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3598,7 +3598,7 @@
         <v>201</v>
       </c>
       <c r="F99" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3606,16 +3606,16 @@
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C100">
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F100" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3623,16 +3623,16 @@
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C101">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>205</v>
-      </c>
-      <c r="F101">
-        <v>-7.68</v>
+        <v>207</v>
+      </c>
+      <c r="F101" t="s">
+        <v>208</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3640,16 +3640,16 @@
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C102">
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F102" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3657,16 +3657,16 @@
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F103" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3674,16 +3674,16 @@
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F104" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3691,16 +3691,16 @@
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F105" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>219</v>
       </c>
       <c r="F106" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3725,16 +3725,16 @@
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
         <v>221</v>
       </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="E107" t="s">
-        <v>222</v>
-      </c>
-      <c r="F107" t="s">
-        <v>223</v>
+      <c r="F107">
+        <v>-7.68</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3742,16 +3742,16 @@
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>223</v>
+      </c>
+      <c r="F108" t="s">
         <v>224</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="E108" t="s">
-        <v>225</v>
-      </c>
-      <c r="F108" t="s">
-        <v>226</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3759,16 +3759,16 @@
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
+        <v>225</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>226</v>
+      </c>
+      <c r="F109" t="s">
         <v>227</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="E109" t="s">
-        <v>228</v>
-      </c>
-      <c r="F109" t="s">
-        <v>229</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3776,16 +3776,16 @@
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F110" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3793,16 +3793,16 @@
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="E111" t="s">
+        <v>230</v>
+      </c>
+      <c r="F111" t="s">
         <v>231</v>
-      </c>
-      <c r="F111" t="s">
-        <v>229</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>232</v>
       </c>
       <c r="F112" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3827,16 +3827,16 @@
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F113" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3844,16 +3844,16 @@
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3861,16 +3861,16 @@
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="E115" t="s">
+        <v>236</v>
+      </c>
+      <c r="F115" t="s">
         <v>237</v>
-      </c>
-      <c r="F115" t="s">
-        <v>223</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>238</v>
       </c>
       <c r="F116" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3895,16 +3895,16 @@
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F117" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3912,16 +3912,16 @@
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F118" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3929,16 +3929,16 @@
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C119">
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F119" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -3946,16 +3946,16 @@
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C120">
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F120" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3963,16 +3963,16 @@
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F121" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -3980,16 +3980,16 @@
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
+        <v>246</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>247</v>
+      </c>
+      <c r="F122" t="s">
         <v>248</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="E122" t="s">
-        <v>249</v>
-      </c>
-      <c r="F122">
-        <v>-4.2699999999999996</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -3997,16 +3997,16 @@
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
+        <v>249</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
         <v>250</v>
       </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>251</v>
-      </c>
-      <c r="F123">
-        <v>-4.03</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>253</v>
       </c>
       <c r="F124" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4031,16 +4031,16 @@
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
+        <v>254</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
         <v>255</v>
       </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="E125" t="s">
-        <v>256</v>
-      </c>
       <c r="F125" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4054,10 +4054,10 @@
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F126" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4065,16 +4065,16 @@
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="E127" t="s">
+        <v>258</v>
+      </c>
+      <c r="F127" t="s">
         <v>259</v>
-      </c>
-      <c r="F127" t="s">
-        <v>257</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4091,7 +4091,7 @@
         <v>260</v>
       </c>
       <c r="F128" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>261</v>
       </c>
       <c r="F129" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -4192,8 +4192,8 @@
       <c r="E134" t="s">
         <v>268</v>
       </c>
-      <c r="F134" t="s">
-        <v>239</v>
+      <c r="F134">
+        <v>-4.2699999999999996</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -4209,8 +4209,8 @@
       <c r="E135" t="s">
         <v>269</v>
       </c>
-      <c r="F135" t="s">
-        <v>241</v>
+      <c r="F135">
+        <v>-4.03</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4278,24 +4278,24 @@
         <v>279</v>
       </c>
       <c r="F139" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
+        <v>280</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
         <v>281</v>
       </c>
-      <c r="C140">
-        <v>0</v>
-      </c>
-      <c r="E140" t="s">
-        <v>282</v>
-      </c>
       <c r="F140" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G140">
         <v>0</v>
@@ -4303,16 +4303,16 @@
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F141" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -4320,16 +4320,16 @@
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C142">
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F142" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -4337,16 +4337,16 @@
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C143">
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F143" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -4360,10 +4360,10 @@
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F144" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -4377,10 +4377,10 @@
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>295</v>
-      </c>
-      <c r="F145">
-        <v>-3.26</v>
+        <v>291</v>
+      </c>
+      <c r="F145" t="s">
+        <v>288</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -4388,16 +4388,16 @@
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C146">
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>296</v>
-      </c>
-      <c r="F146">
-        <v>-2.93</v>
+        <v>292</v>
+      </c>
+      <c r="F146" t="s">
+        <v>290</v>
       </c>
       <c r="G146">
         <v>0</v>
@@ -4405,16 +4405,16 @@
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C147">
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>297</v>
-      </c>
-      <c r="F147" t="s">
-        <v>298</v>
+        <v>293</v>
+      </c>
+      <c r="F147">
+        <v>-3.26</v>
       </c>
       <c r="G147">
         <v>0</v>
@@ -4422,16 +4422,16 @@
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C148">
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F148" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G148">
         <v>0</v>
@@ -4439,16 +4439,16 @@
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C149">
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F149" t="s">
-        <v>233</v>
+        <v>297</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -4456,16 +4456,16 @@
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C150">
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>302</v>
-      </c>
-      <c r="F150" t="s">
-        <v>235</v>
+        <v>298</v>
+      </c>
+      <c r="F150">
+        <v>-2.93</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -4473,16 +4473,16 @@
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C151">
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F151" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -4490,16 +4490,16 @@
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C152">
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F152" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -4507,16 +4507,16 @@
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C153">
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F153" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -4530,10 +4530,10 @@
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F154" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F155" t="s">
         <v>308</v>
@@ -4558,13 +4558,13 @@
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C156">
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F156" t="s">
         <v>310</v>
@@ -4575,16 +4575,16 @@
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C157">
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F157" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -4592,16 +4592,16 @@
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C158">
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F158" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G158">
         <v>0</v>
@@ -4609,16 +4609,16 @@
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C159">
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -4632,10 +4632,10 @@
         <v>0</v>
       </c>
       <c r="E160" t="s">
+        <v>317</v>
+      </c>
+      <c r="F160" t="s">
         <v>318</v>
-      </c>
-      <c r="F160" t="s">
-        <v>316</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>319</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>229</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -4660,16 +4660,16 @@
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
+        <v>320</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
         <v>321</v>
       </c>
-      <c r="C162">
-        <v>0</v>
-      </c>
-      <c r="E162" t="s">
-        <v>322</v>
-      </c>
       <c r="F162" t="s">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -4677,16 +4677,16 @@
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C163">
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F163" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="G163">
         <v>0</v>
@@ -4694,16 +4694,16 @@
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C164">
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F164" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -4711,16 +4711,16 @@
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C165">
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F165" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -4728,16 +4728,16 @@
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C166">
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F166" t="s">
-        <v>333</v>
+        <v>259</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -4745,16 +4745,16 @@
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C167">
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F167" t="s">
-        <v>196</v>
+        <v>332</v>
       </c>
       <c r="G167">
         <v>0</v>
@@ -4762,16 +4762,16 @@
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C168">
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F168" t="s">
-        <v>198</v>
+        <v>334</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -4779,16 +4779,16 @@
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C169">
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F169" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -4796,16 +4796,16 @@
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C170">
         <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F170" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -4813,16 +4813,16 @@
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C171">
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F171" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -4830,16 +4830,16 @@
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C172">
         <v>0</v>
       </c>
       <c r="E172" t="s">
+        <v>339</v>
+      </c>
+      <c r="F172" t="s">
         <v>340</v>
-      </c>
-      <c r="F172" t="s">
-        <v>265</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -4855,8 +4855,8 @@
       <c r="E173" t="s">
         <v>341</v>
       </c>
-      <c r="F173">
-        <v>-1.67</v>
+      <c r="F173" t="s">
+        <v>342</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -4864,16 +4864,16 @@
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C174">
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G174">
         <v>0</v>
@@ -4881,16 +4881,16 @@
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C175">
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F175" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -4898,16 +4898,16 @@
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C176">
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -4915,16 +4915,16 @@
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C177">
         <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>352</v>
-      </c>
-      <c r="F177" t="s">
         <v>353</v>
+      </c>
+      <c r="F177">
+        <v>-1.67</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -4975,7 +4975,7 @@
         <v>361</v>
       </c>
       <c r="F180" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="G180">
         <v>0</v>
@@ -4983,16 +4983,16 @@
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
+        <v>362</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+      <c r="E181" t="s">
         <v>363</v>
       </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="E181" t="s">
-        <v>364</v>
-      </c>
       <c r="F181" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="G181">
         <v>0</v>
@@ -5000,16 +5000,16 @@
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C182">
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F182" t="s">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -5017,16 +5017,16 @@
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C183">
         <v>0</v>
       </c>
       <c r="E183" t="s">
+        <v>366</v>
+      </c>
+      <c r="F183" t="s">
         <v>367</v>
-      </c>
-      <c r="F183" t="s">
-        <v>310</v>
       </c>
       <c r="G183">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>368</v>
       </c>
       <c r="F184" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="G184">
         <v>0</v>
@@ -5060,7 +5060,7 @@
         <v>369</v>
       </c>
       <c r="F185" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -5076,8 +5076,8 @@
       <c r="E186" t="s">
         <v>370</v>
       </c>
-      <c r="F186" t="s">
-        <v>356</v>
+      <c r="F186">
+        <v>-1.04</v>
       </c>
       <c r="G186">
         <v>0</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -5094,7 +5094,7 @@
         <v>371</v>
       </c>
       <c r="F187" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -5110,8 +5110,8 @@
       <c r="E188" t="s">
         <v>372</v>
       </c>
-      <c r="F188">
-        <v>-1.04</v>
+      <c r="F188" t="s">
+        <v>359</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>377</v>
       </c>
       <c r="F191" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -5170,16 +5170,16 @@
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
+        <v>378</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="E192" t="s">
         <v>379</v>
       </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-      <c r="E192" t="s">
-        <v>380</v>
-      </c>
       <c r="F192" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -5187,16 +5187,16 @@
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
+        <v>380</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>381</v>
+      </c>
+      <c r="F193" t="s">
         <v>382</v>
-      </c>
-      <c r="C193">
-        <v>0</v>
-      </c>
-      <c r="E193" t="s">
-        <v>383</v>
-      </c>
-      <c r="F193" t="s">
-        <v>378</v>
       </c>
       <c r="G193">
         <v>0</v>
@@ -5204,16 +5204,16 @@
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
+        <v>383</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="E194" t="s">
         <v>384</v>
       </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-      <c r="E194" t="s">
+      <c r="F194" t="s">
         <v>385</v>
-      </c>
-      <c r="F194" t="s">
-        <v>381</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -5230,24 +5230,24 @@
         <v>387</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C196">
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G196">
         <v>0</v>
@@ -5255,16 +5255,16 @@
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
+        <v>380</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>389</v>
+      </c>
+      <c r="F197" t="s">
         <v>382</v>
-      </c>
-      <c r="C197">
-        <v>0</v>
-      </c>
-      <c r="E197" t="s">
-        <v>391</v>
-      </c>
-      <c r="F197">
-        <v>-1</v>
       </c>
       <c r="G197">
         <v>0</v>
@@ -5272,16 +5272,16 @@
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C198">
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>392</v>
-      </c>
-      <c r="F198">
-        <v>-0.37</v>
+        <v>390</v>
+      </c>
+      <c r="F198" t="s">
+        <v>385</v>
       </c>
       <c r="G198">
         <v>0</v>
@@ -5295,10 +5295,10 @@
         <v>0</v>
       </c>
       <c r="E199" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F199" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="G199">
         <v>0</v>
@@ -5306,16 +5306,16 @@
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C200">
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F200" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -5323,13 +5323,13 @@
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C201">
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F201" t="s">
         <v>394</v>
@@ -5340,13 +5340,13 @@
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C202">
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F202" t="s">
         <v>396</v>
@@ -5357,16 +5357,16 @@
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C203">
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F203" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -5374,16 +5374,16 @@
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C204">
         <v>0</v>
       </c>
       <c r="E204" t="s">
+        <v>399</v>
+      </c>
+      <c r="F204" t="s">
         <v>400</v>
-      </c>
-      <c r="F204" t="s">
-        <v>396</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -5399,8 +5399,8 @@
       <c r="E205" t="s">
         <v>401</v>
       </c>
-      <c r="F205" t="s">
-        <v>394</v>
+      <c r="F205">
+        <v>-1</v>
       </c>
       <c r="G205">
         <v>0</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -5416,8 +5416,8 @@
       <c r="E206" t="s">
         <v>402</v>
       </c>
-      <c r="F206" t="s">
-        <v>396</v>
+      <c r="F206">
+        <v>-0.37</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>405</v>
       </c>
       <c r="F209" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G209">
         <v>0</v>
@@ -5476,7 +5476,7 @@
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -5485,7 +5485,7 @@
         <v>406</v>
       </c>
       <c r="F210" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="G210">
         <v>0</v>
@@ -5587,7 +5587,7 @@
         <v>421</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G216">
         <v>0</v>
@@ -5595,16 +5595,16 @@
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
+        <v>422</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="E217" t="s">
         <v>423</v>
       </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-      <c r="E217" t="s">
-        <v>424</v>
-      </c>
       <c r="F217" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="G217">
         <v>0</v>
@@ -5612,16 +5612,16 @@
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
+        <v>424</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>425</v>
+      </c>
+      <c r="F218" t="s">
         <v>426</v>
-      </c>
-      <c r="C218">
-        <v>0</v>
-      </c>
-      <c r="E218" t="s">
-        <v>427</v>
-      </c>
-      <c r="F218">
-        <v>-0.03</v>
       </c>
       <c r="G218">
         <v>0</v>
@@ -5629,16 +5629,16 @@
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
+        <v>427</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="E219" t="s">
         <v>428</v>
       </c>
-      <c r="C219">
-        <v>0</v>
-      </c>
-      <c r="E219" t="s">
+      <c r="F219" t="s">
         <v>429</v>
-      </c>
-      <c r="F219">
-        <v>-0.06</v>
       </c>
       <c r="G219">
         <v>0</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -5688,8 +5688,8 @@
       <c r="E222" t="s">
         <v>434</v>
       </c>
-      <c r="F222" t="s">
-        <v>431</v>
+      <c r="F222">
+        <v>-0.03</v>
       </c>
       <c r="G222">
         <v>0</v>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -5705,8 +5705,8 @@
       <c r="E223" t="s">
         <v>435</v>
       </c>
-      <c r="F223" t="s">
-        <v>433</v>
+      <c r="F223">
+        <v>-0.06</v>
       </c>
       <c r="G223">
         <v>0</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -5757,7 +5757,7 @@
         <v>440</v>
       </c>
       <c r="F226" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="G226">
         <v>0</v>
@@ -5765,16 +5765,16 @@
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C227">
         <v>0</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F227" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -5782,16 +5782,16 @@
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C228">
         <v>0</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F228" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -5799,16 +5799,16 @@
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C229">
         <v>0</v>
       </c>
       <c r="E229" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F229" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -5816,13 +5816,13 @@
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C230">
         <v>0</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F230" t="s">
         <v>437</v>
@@ -5833,13 +5833,13 @@
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C231">
         <v>0</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F231" t="s">
         <v>439</v>
@@ -5850,16 +5850,16 @@
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C232">
         <v>0</v>
       </c>
       <c r="E232" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F232" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -5867,16 +5867,16 @@
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C233">
         <v>0</v>
       </c>
       <c r="E233" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F233" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -5884,16 +5884,16 @@
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C234">
         <v>0</v>
       </c>
       <c r="E234" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F234" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -5901,16 +5901,16 @@
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C235">
         <v>0</v>
       </c>
       <c r="E235" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F235" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -5918,16 +5918,16 @@
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C236">
         <v>0</v>
       </c>
       <c r="E236" t="s">
-        <v>454</v>
-      </c>
-      <c r="F236">
-        <v>-0.02</v>
+        <v>456</v>
+      </c>
+      <c r="F236" t="s">
+        <v>382</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -5935,16 +5935,16 @@
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C237">
         <v>0</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F237" t="s">
-        <v>456</v>
+        <v>385</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -5952,16 +5952,16 @@
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C238">
         <v>0</v>
       </c>
       <c r="E238" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F238" t="s">
-        <v>458</v>
+        <v>382</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>459</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>385</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -5994,8 +5994,8 @@
       <c r="E240" t="s">
         <v>460</v>
       </c>
-      <c r="F240" t="s">
-        <v>458</v>
+      <c r="F240">
+        <v>-0.02</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C241">
         <v>0</v>
@@ -6097,7 +6097,7 @@
         <v>468</v>
       </c>
       <c r="F246" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -6114,7 +6114,7 @@
         <v>469</v>
       </c>
       <c r="F247" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6131,7 +6131,7 @@
         <v>471</v>
       </c>
       <c r="F248" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>473</v>
       </c>
       <c r="F249" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C255">
         <v>0</v>
@@ -6267,7 +6267,7 @@
         <v>482</v>
       </c>
       <c r="F256" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -6284,7 +6284,7 @@
         <v>483</v>
       </c>
       <c r="F257" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -6309,7 +6309,7 @@
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C259">
         <v>0</v>
@@ -6369,7 +6369,7 @@
         <v>489</v>
       </c>
       <c r="F262" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="G262">
         <v>0</v>
@@ -6386,7 +6386,7 @@
         <v>491</v>
       </c>
       <c r="F263" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -6462,7 +6462,7 @@
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C273">
         <v>0</v>
@@ -6636,7 +6636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20ED07D6-396F-42CE-A1B0-C9F9EC75B4F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01069D70-5589-4D65-A59A-20762021EA06}">
   <dimension ref="A1:L278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6709,7 +6709,7 @@
         <v>516</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -6724,7 +6724,7 @@
         <v>7</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7545,8 +7545,8 @@
       <c r="G77" t="s">
         <v>157</v>
       </c>
-      <c r="H77">
-        <v>-11.79</v>
+      <c r="H77" t="s">
+        <v>158</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7554,10 +7554,10 @@
     </row>
     <row r="78" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7565,10 +7565,10 @@
     </row>
     <row r="79" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H79" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7579,7 +7579,7 @@
         <v>162</v>
       </c>
       <c r="H80" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7587,10 +7587,10 @@
     </row>
     <row r="81" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
+        <v>163</v>
+      </c>
+      <c r="H81" t="s">
         <v>164</v>
-      </c>
-      <c r="H81" t="s">
-        <v>165</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -7598,10 +7598,10 @@
     </row>
     <row r="82" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G82" t="s">
+        <v>165</v>
+      </c>
+      <c r="H82" t="s">
         <v>166</v>
-      </c>
-      <c r="H82" t="s">
-        <v>163</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -7611,8 +7611,8 @@
       <c r="G83" t="s">
         <v>167</v>
       </c>
-      <c r="H83" t="s">
-        <v>165</v>
+      <c r="H83">
+        <v>-11.79</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -7622,8 +7622,8 @@
       <c r="G84" t="s">
         <v>168</v>
       </c>
-      <c r="H84" t="s">
-        <v>169</v>
+      <c r="H84">
+        <v>-9.41</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -7631,10 +7631,10 @@
     </row>
     <row r="85" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G85" t="s">
+        <v>169</v>
+      </c>
+      <c r="H85" t="s">
         <v>170</v>
-      </c>
-      <c r="H85" t="s">
-        <v>171</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -7642,10 +7642,10 @@
     </row>
     <row r="86" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G86" t="s">
+        <v>171</v>
+      </c>
+      <c r="H86" t="s">
         <v>172</v>
-      </c>
-      <c r="H86" t="s">
-        <v>173</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -7653,10 +7653,10 @@
     </row>
     <row r="87" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G87" t="s">
+        <v>175</v>
+      </c>
+      <c r="H87" t="s">
         <v>176</v>
-      </c>
-      <c r="H87" t="s">
-        <v>177</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -7664,10 +7664,10 @@
     </row>
     <row r="88" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G88" t="s">
+        <v>178</v>
+      </c>
+      <c r="H88" t="s">
         <v>179</v>
-      </c>
-      <c r="H88" t="s">
-        <v>173</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -7678,7 +7678,7 @@
         <v>181</v>
       </c>
       <c r="H89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -7689,7 +7689,7 @@
         <v>183</v>
       </c>
       <c r="H90" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -7697,10 +7697,10 @@
     </row>
     <row r="91" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G91" t="s">
+        <v>185</v>
+      </c>
+      <c r="H91" t="s">
         <v>186</v>
-      </c>
-      <c r="H91" t="s">
-        <v>187</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -7708,10 +7708,10 @@
     </row>
     <row r="92" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G92" t="s">
+        <v>188</v>
+      </c>
+      <c r="H92" t="s">
         <v>189</v>
-      </c>
-      <c r="H92" t="s">
-        <v>190</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -7719,10 +7719,10 @@
     </row>
     <row r="93" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G93" t="s">
+        <v>190</v>
+      </c>
+      <c r="H93" t="s">
         <v>191</v>
-      </c>
-      <c r="H93" t="s">
-        <v>192</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -7730,10 +7730,10 @@
     </row>
     <row r="94" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G94" t="s">
+        <v>192</v>
+      </c>
+      <c r="H94" t="s">
         <v>193</v>
-      </c>
-      <c r="H94">
-        <v>-9.41</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -7799,7 +7799,7 @@
         <v>201</v>
       </c>
       <c r="H100" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -7807,10 +7807,10 @@
     </row>
     <row r="101" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G101" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H101" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -7818,10 +7818,10 @@
     </row>
     <row r="102" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G102" t="s">
-        <v>205</v>
-      </c>
-      <c r="H102">
-        <v>-7.68</v>
+        <v>207</v>
+      </c>
+      <c r="H102" t="s">
+        <v>208</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -7829,10 +7829,10 @@
     </row>
     <row r="103" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G103" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H103" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -7840,10 +7840,10 @@
     </row>
     <row r="104" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G104" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H104" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -7851,10 +7851,10 @@
     </row>
     <row r="105" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G105" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H105" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -7862,10 +7862,10 @@
     </row>
     <row r="106" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G106" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H106" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>219</v>
       </c>
       <c r="H107" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -7884,10 +7884,10 @@
     </row>
     <row r="108" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G108" t="s">
-        <v>222</v>
-      </c>
-      <c r="H108" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+      <c r="H108">
+        <v>-7.68</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -7895,10 +7895,10 @@
     </row>
     <row r="109" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G109" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H109" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -7906,10 +7906,10 @@
     </row>
     <row r="110" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G110" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H110" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -7917,10 +7917,10 @@
     </row>
     <row r="111" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G111" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H111" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -7928,10 +7928,10 @@
     </row>
     <row r="112" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G112" t="s">
+        <v>230</v>
+      </c>
+      <c r="H112" t="s">
         <v>231</v>
-      </c>
-      <c r="H112" t="s">
-        <v>229</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>232</v>
       </c>
       <c r="H113" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -7950,10 +7950,10 @@
     </row>
     <row r="114" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G114" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H114" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -7961,10 +7961,10 @@
     </row>
     <row r="115" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G115" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H115" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -7972,10 +7972,10 @@
     </row>
     <row r="116" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G116" t="s">
+        <v>236</v>
+      </c>
+      <c r="H116" t="s">
         <v>237</v>
-      </c>
-      <c r="H116" t="s">
-        <v>223</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -7986,7 +7986,7 @@
         <v>238</v>
       </c>
       <c r="H117" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -7994,10 +7994,10 @@
     </row>
     <row r="118" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G118" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H118" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -8005,10 +8005,10 @@
     </row>
     <row r="119" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G119" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H119" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -8016,10 +8016,10 @@
     </row>
     <row r="120" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G120" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H120" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -8027,10 +8027,10 @@
     </row>
     <row r="121" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G121" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H121" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -8038,10 +8038,10 @@
     </row>
     <row r="122" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G122" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H122" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -8049,10 +8049,10 @@
     </row>
     <row r="123" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G123" t="s">
-        <v>249</v>
-      </c>
-      <c r="H123">
-        <v>-4.2699999999999996</v>
+        <v>247</v>
+      </c>
+      <c r="H123" t="s">
+        <v>248</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -8060,10 +8060,10 @@
     </row>
     <row r="124" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G124" t="s">
+        <v>250</v>
+      </c>
+      <c r="H124" t="s">
         <v>251</v>
-      </c>
-      <c r="H124">
-        <v>-4.03</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -8074,7 +8074,7 @@
         <v>253</v>
       </c>
       <c r="H125" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -8082,10 +8082,10 @@
     </row>
     <row r="126" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G126" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H126" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -8093,10 +8093,10 @@
     </row>
     <row r="127" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G127" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H127" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -8104,10 +8104,10 @@
     </row>
     <row r="128" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G128" t="s">
+        <v>258</v>
+      </c>
+      <c r="H128" t="s">
         <v>259</v>
-      </c>
-      <c r="H128" t="s">
-        <v>257</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -8118,7 +8118,7 @@
         <v>260</v>
       </c>
       <c r="H129" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -8129,7 +8129,7 @@
         <v>261</v>
       </c>
       <c r="H130" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -8183,8 +8183,8 @@
       <c r="G135" t="s">
         <v>268</v>
       </c>
-      <c r="H135" t="s">
-        <v>239</v>
+      <c r="H135">
+        <v>-4.2699999999999996</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -8194,8 +8194,8 @@
       <c r="G136" t="s">
         <v>269</v>
       </c>
-      <c r="H136" t="s">
-        <v>241</v>
+      <c r="H136">
+        <v>-4.03</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -8239,18 +8239,18 @@
         <v>279</v>
       </c>
       <c r="H140" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G141" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H141" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -8258,10 +8258,10 @@
     </row>
     <row r="142" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G142" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H142" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -8269,10 +8269,10 @@
     </row>
     <row r="143" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G143" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H143" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -8280,10 +8280,10 @@
     </row>
     <row r="144" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G144" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H144" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -8291,10 +8291,10 @@
     </row>
     <row r="145" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G145" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H145" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -8302,10 +8302,10 @@
     </row>
     <row r="146" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G146" t="s">
-        <v>295</v>
-      </c>
-      <c r="H146">
-        <v>-3.26</v>
+        <v>291</v>
+      </c>
+      <c r="H146" t="s">
+        <v>288</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -8313,10 +8313,10 @@
     </row>
     <row r="147" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G147" t="s">
-        <v>296</v>
-      </c>
-      <c r="H147">
-        <v>-2.93</v>
+        <v>292</v>
+      </c>
+      <c r="H147" t="s">
+        <v>290</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -8324,10 +8324,10 @@
     </row>
     <row r="148" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G148" t="s">
-        <v>297</v>
-      </c>
-      <c r="H148" t="s">
-        <v>298</v>
+        <v>293</v>
+      </c>
+      <c r="H148">
+        <v>-3.26</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -8335,10 +8335,10 @@
     </row>
     <row r="149" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G149" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="H149" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -8346,10 +8346,10 @@
     </row>
     <row r="150" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G150" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H150" t="s">
-        <v>233</v>
+        <v>297</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -8357,10 +8357,10 @@
     </row>
     <row r="151" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G151" t="s">
-        <v>302</v>
-      </c>
-      <c r="H151" t="s">
-        <v>235</v>
+        <v>298</v>
+      </c>
+      <c r="H151">
+        <v>-2.93</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -8368,10 +8368,10 @@
     </row>
     <row r="152" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G152" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H152" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -8379,10 +8379,10 @@
     </row>
     <row r="153" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G153" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H153" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -8390,10 +8390,10 @@
     </row>
     <row r="154" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G154" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H154" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -8401,10 +8401,10 @@
     </row>
     <row r="155" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G155" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H155" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -8412,7 +8412,7 @@
     </row>
     <row r="156" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G156" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H156" t="s">
         <v>308</v>
@@ -8423,7 +8423,7 @@
     </row>
     <row r="157" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G157" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H157" t="s">
         <v>310</v>
@@ -8434,10 +8434,10 @@
     </row>
     <row r="158" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -8445,10 +8445,10 @@
     </row>
     <row r="159" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H159" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -8456,10 +8456,10 @@
     </row>
     <row r="160" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H160" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -8467,10 +8467,10 @@
     </row>
     <row r="161" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G161" t="s">
+        <v>317</v>
+      </c>
+      <c r="H161" t="s">
         <v>318</v>
-      </c>
-      <c r="H161" t="s">
-        <v>316</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -8481,7 +8481,7 @@
         <v>319</v>
       </c>
       <c r="H162" t="s">
-        <v>320</v>
+        <v>229</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -8489,10 +8489,10 @@
     </row>
     <row r="163" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G163" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H163" t="s">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -8500,10 +8500,10 @@
     </row>
     <row r="164" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G164" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H164" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -8511,10 +8511,10 @@
     </row>
     <row r="165" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H165" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -8522,10 +8522,10 @@
     </row>
     <row r="166" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H166" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -8533,10 +8533,10 @@
     </row>
     <row r="167" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G167" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H167" t="s">
-        <v>333</v>
+        <v>259</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -8544,10 +8544,10 @@
     </row>
     <row r="168" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G168" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H168" t="s">
-        <v>196</v>
+        <v>332</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -8555,10 +8555,10 @@
     </row>
     <row r="169" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G169" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H169" t="s">
-        <v>198</v>
+        <v>334</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -8566,10 +8566,10 @@
     </row>
     <row r="170" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H170" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -8577,10 +8577,10 @@
     </row>
     <row r="171" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H171" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -8588,10 +8588,10 @@
     </row>
     <row r="172" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G172" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H172" t="s">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -8599,10 +8599,10 @@
     </row>
     <row r="173" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G173" t="s">
+        <v>339</v>
+      </c>
+      <c r="H173" t="s">
         <v>340</v>
-      </c>
-      <c r="H173" t="s">
-        <v>265</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -8612,8 +8612,8 @@
       <c r="G174" t="s">
         <v>341</v>
       </c>
-      <c r="H174">
-        <v>-1.67</v>
+      <c r="H174" t="s">
+        <v>342</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -8621,10 +8621,10 @@
     </row>
     <row r="175" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G175" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H175" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -8632,10 +8632,10 @@
     </row>
     <row r="176" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G176" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H176" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I176">
         <v>0</v>
@@ -8643,10 +8643,10 @@
     </row>
     <row r="177" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G177" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H177" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I177">
         <v>0</v>
@@ -8654,10 +8654,10 @@
     </row>
     <row r="178" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G178" t="s">
-        <v>352</v>
-      </c>
-      <c r="H178" t="s">
         <v>353</v>
+      </c>
+      <c r="H178">
+        <v>-1.67</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>361</v>
       </c>
       <c r="H181" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="I181">
         <v>0</v>
@@ -8698,10 +8698,10 @@
     </row>
     <row r="182" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G182" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H182" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="I182">
         <v>0</v>
@@ -8709,10 +8709,10 @@
     </row>
     <row r="183" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G183" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H183" t="s">
-        <v>308</v>
+        <v>365</v>
       </c>
       <c r="I183">
         <v>0</v>
@@ -8720,10 +8720,10 @@
     </row>
     <row r="184" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G184" t="s">
+        <v>366</v>
+      </c>
+      <c r="H184" t="s">
         <v>367</v>
-      </c>
-      <c r="H184" t="s">
-        <v>310</v>
       </c>
       <c r="I184">
         <v>0</v>
@@ -8734,7 +8734,7 @@
         <v>368</v>
       </c>
       <c r="H185" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="I185">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>369</v>
       </c>
       <c r="H186" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="I186">
         <v>0</v>
@@ -8755,8 +8755,8 @@
       <c r="G187" t="s">
         <v>370</v>
       </c>
-      <c r="H187" t="s">
-        <v>356</v>
+      <c r="H187">
+        <v>-1.04</v>
       </c>
       <c r="I187">
         <v>0</v>
@@ -8767,7 +8767,7 @@
         <v>371</v>
       </c>
       <c r="H188" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I188">
         <v>0</v>
@@ -8777,8 +8777,8 @@
       <c r="G189" t="s">
         <v>372</v>
       </c>
-      <c r="H189">
-        <v>-1.04</v>
+      <c r="H189" t="s">
+        <v>359</v>
       </c>
       <c r="I189">
         <v>0</v>
@@ -8811,7 +8811,7 @@
         <v>377</v>
       </c>
       <c r="H192" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I192">
         <v>0</v>
@@ -8819,10 +8819,10 @@
     </row>
     <row r="193" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G193" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H193" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I193">
         <v>0</v>
@@ -8830,10 +8830,10 @@
     </row>
     <row r="194" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G194" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H194" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="I194">
         <v>0</v>
@@ -8841,10 +8841,10 @@
     </row>
     <row r="195" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G195" t="s">
+        <v>384</v>
+      </c>
+      <c r="H195" t="s">
         <v>385</v>
-      </c>
-      <c r="H195" t="s">
-        <v>381</v>
       </c>
       <c r="I195">
         <v>0</v>
@@ -8855,18 +8855,18 @@
         <v>387</v>
       </c>
       <c r="H196" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="I196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G197" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H197" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="I197">
         <v>0</v>
@@ -8874,10 +8874,10 @@
     </row>
     <row r="198" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G198" t="s">
-        <v>391</v>
-      </c>
-      <c r="H198">
-        <v>-1</v>
+        <v>389</v>
+      </c>
+      <c r="H198" t="s">
+        <v>382</v>
       </c>
       <c r="I198">
         <v>0</v>
@@ -8885,10 +8885,10 @@
     </row>
     <row r="199" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G199" t="s">
-        <v>392</v>
-      </c>
-      <c r="H199">
-        <v>-0.37</v>
+        <v>390</v>
+      </c>
+      <c r="H199" t="s">
+        <v>385</v>
       </c>
       <c r="I199">
         <v>0</v>
@@ -8896,10 +8896,10 @@
     </row>
     <row r="200" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G200" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H200" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="I200">
         <v>0</v>
@@ -8907,10 +8907,10 @@
     </row>
     <row r="201" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G201" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H201" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="I201">
         <v>0</v>
@@ -8918,7 +8918,7 @@
     </row>
     <row r="202" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G202" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H202" t="s">
         <v>394</v>
@@ -8929,7 +8929,7 @@
     </row>
     <row r="203" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G203" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H203" t="s">
         <v>396</v>
@@ -8940,10 +8940,10 @@
     </row>
     <row r="204" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G204" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H204" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -8951,10 +8951,10 @@
     </row>
     <row r="205" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G205" t="s">
+        <v>399</v>
+      </c>
+      <c r="H205" t="s">
         <v>400</v>
-      </c>
-      <c r="H205" t="s">
-        <v>396</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -8964,8 +8964,8 @@
       <c r="G206" t="s">
         <v>401</v>
       </c>
-      <c r="H206" t="s">
-        <v>394</v>
+      <c r="H206">
+        <v>-1</v>
       </c>
       <c r="I206">
         <v>0</v>
@@ -8975,8 +8975,8 @@
       <c r="G207" t="s">
         <v>402</v>
       </c>
-      <c r="H207" t="s">
-        <v>396</v>
+      <c r="H207">
+        <v>-0.37</v>
       </c>
       <c r="I207">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>405</v>
       </c>
       <c r="H210" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I210">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>406</v>
       </c>
       <c r="H211" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="I211">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>421</v>
       </c>
       <c r="H217" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="I217">
         <v>0</v>
@@ -9094,10 +9094,10 @@
     </row>
     <row r="218" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G218" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H218" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="I218">
         <v>0</v>
@@ -9105,10 +9105,10 @@
     </row>
     <row r="219" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G219" t="s">
-        <v>427</v>
-      </c>
-      <c r="H219">
-        <v>-0.03</v>
+        <v>425</v>
+      </c>
+      <c r="H219" t="s">
+        <v>426</v>
       </c>
       <c r="I219">
         <v>0</v>
@@ -9116,10 +9116,10 @@
     </row>
     <row r="220" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G220" t="s">
+        <v>428</v>
+      </c>
+      <c r="H220" t="s">
         <v>429</v>
-      </c>
-      <c r="H220">
-        <v>-0.06</v>
       </c>
       <c r="I220">
         <v>0</v>
@@ -9151,8 +9151,8 @@
       <c r="G223" t="s">
         <v>434</v>
       </c>
-      <c r="H223" t="s">
-        <v>431</v>
+      <c r="H223">
+        <v>-0.03</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -9162,8 +9162,8 @@
       <c r="G224" t="s">
         <v>435</v>
       </c>
-      <c r="H224" t="s">
-        <v>433</v>
+      <c r="H224">
+        <v>-0.06</v>
       </c>
       <c r="I224">
         <v>0</v>
@@ -9196,7 +9196,7 @@
         <v>440</v>
       </c>
       <c r="H227" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="I227">
         <v>0</v>
@@ -9204,10 +9204,10 @@
     </row>
     <row r="228" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G228" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H228" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="I228">
         <v>0</v>
@@ -9215,10 +9215,10 @@
     </row>
     <row r="229" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G229" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H229" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="I229">
         <v>0</v>
@@ -9226,10 +9226,10 @@
     </row>
     <row r="230" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G230" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H230" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="I230">
         <v>0</v>
@@ -9237,7 +9237,7 @@
     </row>
     <row r="231" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G231" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H231" t="s">
         <v>437</v>
@@ -9248,7 +9248,7 @@
     </row>
     <row r="232" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G232" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H232" t="s">
         <v>439</v>
@@ -9259,10 +9259,10 @@
     </row>
     <row r="233" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G233" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H233" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="I233">
         <v>0</v>
@@ -9270,10 +9270,10 @@
     </row>
     <row r="234" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G234" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="H234" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="I234">
         <v>0</v>
@@ -9281,10 +9281,10 @@
     </row>
     <row r="235" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G235" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H235" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="I235">
         <v>0</v>
@@ -9292,10 +9292,10 @@
     </row>
     <row r="236" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G236" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="H236" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="I236">
         <v>0</v>
@@ -9303,10 +9303,10 @@
     </row>
     <row r="237" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G237" t="s">
-        <v>454</v>
-      </c>
-      <c r="H237">
-        <v>-0.02</v>
+        <v>456</v>
+      </c>
+      <c r="H237" t="s">
+        <v>382</v>
       </c>
       <c r="I237">
         <v>0</v>
@@ -9314,10 +9314,10 @@
     </row>
     <row r="238" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G238" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H238" t="s">
-        <v>456</v>
+        <v>385</v>
       </c>
       <c r="I238">
         <v>0</v>
@@ -9325,10 +9325,10 @@
     </row>
     <row r="239" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G239" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H239" t="s">
-        <v>458</v>
+        <v>382</v>
       </c>
       <c r="I239">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>459</v>
       </c>
       <c r="H240" t="s">
-        <v>456</v>
+        <v>385</v>
       </c>
       <c r="I240">
         <v>0</v>
@@ -9349,8 +9349,8 @@
       <c r="G241" t="s">
         <v>460</v>
       </c>
-      <c r="H241" t="s">
-        <v>458</v>
+      <c r="H241">
+        <v>-0.02</v>
       </c>
       <c r="I241">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>468</v>
       </c>
       <c r="H247" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="I247">
         <v>0</v>
@@ -9427,7 +9427,7 @@
         <v>469</v>
       </c>
       <c r="H248" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="I248">
         <v>0</v>
@@ -9438,7 +9438,7 @@
         <v>471</v>
       </c>
       <c r="H249" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="I249">
         <v>0</v>
@@ -9449,7 +9449,7 @@
         <v>473</v>
       </c>
       <c r="H250" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="I250">
         <v>0</v>
@@ -9526,7 +9526,7 @@
         <v>482</v>
       </c>
       <c r="H257" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="I257">
         <v>0</v>
@@ -9537,7 +9537,7 @@
         <v>483</v>
       </c>
       <c r="H258" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="I258">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>489</v>
       </c>
       <c r="H263" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="I263">
         <v>0</v>
@@ -9603,7 +9603,7 @@
         <v>491</v>
       </c>
       <c r="H264" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="I264">
         <v>0</v>
@@ -9769,7 +9769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692C9136-913A-40E3-86B5-3CF74EC63F83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617300AE-7D7A-44F0-9BCB-ED5C330EFAAD}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
